--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_723.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_723.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d12290103-Reviews-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Studio-6-Anaheim.h4119.Hotel-Information</t>
@@ -532,11 +538,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +570,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_723.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_723.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,260 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r551598994-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>12290103</t>
+  </si>
+  <si>
+    <t>551598994</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>The absolute worst hotel experience I have ever had. My family and I stayed here for 4 nights after Christmas Dec 2017. Every single night we came back our keys didn't work, had to go to the office every night for them to reprogram our keys. Also every single night (once we got inside) we discovered our smoke alarm to be beeping; that slow beep that means change the batteries etc. The first night it was beeping at 11:30 pm while I'm trying to get my kids to stay asleep! I called the front office and they said it would take 30 minutes for someone to come fix it! 30 minutes of constant beeping in the middle of the night?! You've got to be kidding me. Each night after I called about the beeping smoke detector they would just tell me to remove the detector since they "can't" fix it. When I told them I believe it's illegal to remove smoke detectors the answer I got was basically "well, we can't fix it so..." The whole place was in disrepair: broken drawers, toilet lid that doesn't fit the tank, light above the bed broken, cockroaches. Absolutely horrible. Our toiletries, coffee, etc was NEVER refilled or replaced even after we expressley asked the office to refill and the lady at the desk wrote down that our things needed refilling. Things STILL NEVER got refilled. We spoke to the front desk repeatedly...The absolute worst hotel experience I have ever had. My family and I stayed here for 4 nights after Christmas Dec 2017. Every single night we came back our keys didn't work, had to go to the office every night for them to reprogram our keys. Also every single night (once we got inside) we discovered our smoke alarm to be beeping; that slow beep that means change the batteries etc. The first night it was beeping at 11:30 pm while I'm trying to get my kids to stay asleep! I called the front office and they said it would take 30 minutes for someone to come fix it! 30 minutes of constant beeping in the middle of the night?! You've got to be kidding me. Each night after I called about the beeping smoke detector they would just tell me to remove the detector since they "can't" fix it. When I told them I believe it's illegal to remove smoke detectors the answer I got was basically "well, we can't fix it so..." The whole place was in disrepair: broken drawers, toilet lid that doesn't fit the tank, light above the bed broken, cockroaches. Absolutely horrible. Our toiletries, coffee, etc was NEVER refilled or replaced even after we expressley asked the office to refill and the lady at the desk wrote down that our things needed refilling. Things STILL NEVER got refilled. We spoke to the front desk repeatedly about the issues but it didn't matter, we clearly weren't GUESTS here. Frankly, with all the horrible reviews I see now that our stay is over I have no idea how this place is still in business.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>The absolute worst hotel experience I have ever had. My family and I stayed here for 4 nights after Christmas Dec 2017. Every single night we came back our keys didn't work, had to go to the office every night for them to reprogram our keys. Also every single night (once we got inside) we discovered our smoke alarm to be beeping; that slow beep that means change the batteries etc. The first night it was beeping at 11:30 pm while I'm trying to get my kids to stay asleep! I called the front office and they said it would take 30 minutes for someone to come fix it! 30 minutes of constant beeping in the middle of the night?! You've got to be kidding me. Each night after I called about the beeping smoke detector they would just tell me to remove the detector since they "can't" fix it. When I told them I believe it's illegal to remove smoke detectors the answer I got was basically "well, we can't fix it so..." The whole place was in disrepair: broken drawers, toilet lid that doesn't fit the tank, light above the bed broken, cockroaches. Absolutely horrible. Our toiletries, coffee, etc was NEVER refilled or replaced even after we expressley asked the office to refill and the lady at the desk wrote down that our things needed refilling. Things STILL NEVER got refilled. We spoke to the front desk repeatedly...The absolute worst hotel experience I have ever had. My family and I stayed here for 4 nights after Christmas Dec 2017. Every single night we came back our keys didn't work, had to go to the office every night for them to reprogram our keys. Also every single night (once we got inside) we discovered our smoke alarm to be beeping; that slow beep that means change the batteries etc. The first night it was beeping at 11:30 pm while I'm trying to get my kids to stay asleep! I called the front office and they said it would take 30 minutes for someone to come fix it! 30 minutes of constant beeping in the middle of the night?! You've got to be kidding me. Each night after I called about the beeping smoke detector they would just tell me to remove the detector since they "can't" fix it. When I told them I believe it's illegal to remove smoke detectors the answer I got was basically "well, we can't fix it so..." The whole place was in disrepair: broken drawers, toilet lid that doesn't fit the tank, light above the bed broken, cockroaches. Absolutely horrible. Our toiletries, coffee, etc was NEVER refilled or replaced even after we expressley asked the office to refill and the lady at the desk wrote down that our things needed refilling. Things STILL NEVER got refilled. We spoke to the front desk repeatedly about the issues but it didn't matter, we clearly weren't GUESTS here. Frankly, with all the horrible reviews I see now that our stay is over I have no idea how this place is still in business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r539806521-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>539806521</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Just a quick overnight stay</t>
+  </si>
+  <si>
+    <t>We were not in the motel for a very long time, so our review is limited in scope to what we observed and did there.  I do not have anything bad to say about the room or the facilities.  Overall it met our requirements.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Guest_Relations_2018, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>We were not in the motel for a very long time, so our review is limited in scope to what we observed and did there.  I do not have anything bad to say about the room or the facilities.  Overall it met our requirements.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r537508860-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>537508860</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Disappointed!!</t>
+  </si>
+  <si>
+    <t>Checked in on 10/20 and spent 10 min trying to get the keys to work. Had to be re-programmed. Went back to room and got in fine. I went out for a few hours and came back and could not get into room again! Had the lady at the front desk try and she couldn't get it to open either. Had to call maintenance guy at his house and waited in the lobby for 45 min. He got there and got it open right away, but all told, I spent and hour locked out of my room. When I told the manager about this at checkout, she offered no apology and offered a whopping $5 off for my trouble. She pushed a few buttons and said it would be refunded on my card. 11 days later, still no credit. She obviously just lied to get me outta there. While I was in complaining, there was another lady doing the same thing about her room!! There's a reason they come up as the cheapest when doing a room search. Spend a little extra folks and you won't have to worry about incidents/people like this as well as not the greatest part of town. You get what you pay for!!!  Hope this helpsMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Brandy C, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Checked in on 10/20 and spent 10 min trying to get the keys to work. Had to be re-programmed. Went back to room and got in fine. I went out for a few hours and came back and could not get into room again! Had the lady at the front desk try and she couldn't get it to open either. Had to call maintenance guy at his house and waited in the lobby for 45 min. He got there and got it open right away, but all told, I spent and hour locked out of my room. When I told the manager about this at checkout, she offered no apology and offered a whopping $5 off for my trouble. She pushed a few buttons and said it would be refunded on my card. 11 days later, still no credit. She obviously just lied to get me outta there. While I was in complaining, there was another lady doing the same thing about her room!! There's a reason they come up as the cheapest when doing a room search. Spend a little extra folks and you won't have to worry about incidents/people like this as well as not the greatest part of town. You get what you pay for!!!  Hope this helpsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r533260676-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>533260676</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>Room was spacious and clean, however this was a solo trip with my 7 year old daughter. While staying at Studio 6 a lot of suspicious activity was happening, in and around the hotel. Men (and a woman) were walking around the hotel communicating and talking about drugs and meeting people at the nearby park. How I know this? Well they were talking about their business right outside my door. I did not feel safe at all. Our door looked like it had been kicked down more than once. Will not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandy C, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Room was spacious and clean, however this was a solo trip with my 7 year old daughter. While staying at Studio 6 a lot of suspicious activity was happening, in and around the hotel. Men (and a woman) were walking around the hotel communicating and talking about drugs and meeting people at the nearby park. How I know this? Well they were talking about their business right outside my door. I did not feel safe at all. Our door looked like it had been kicked down more than once. Will not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r521176978-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>521176978</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>The room was not clean enough for my wife and I we like the area. Hotel needs to spend more time on cleaning and getting the rooms ready  The front desk was very understanding and had no problem with the  refundMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>The room was not clean enough for my wife and I we like the area. Hotel needs to spend more time on cleaning and getting the rooms ready  The front desk was very understanding and had no problem with the  refundMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r517194842-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>517194842</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Not bad for the price. But very bad neighborhood.</t>
+  </si>
+  <si>
+    <t>We stayed at this place before and honestly it was one of the worst places we had stayed. It is still a bad neighborhood and people who live in this motel are not afraid to let trash and alcohol and themselves run wild in the motel. There is not respect by the inhabitants. We went was running late to check in. The man this round who check us in was very nice and a relief to talk to after a long day. The man gave us a nice king sized room and it was clean. There was minimal parking. The outside of the building was pretty dirty. You close your door and the whole outside of the building feels like it wants to come off. We did not do the breakfast. So I don’t know now if it had changed. But I wish I had more to say.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this place before and honestly it was one of the worst places we had stayed. It is still a bad neighborhood and people who live in this motel are not afraid to let trash and alcohol and themselves run wild in the motel. There is not respect by the inhabitants. We went was running late to check in. The man this round who check us in was very nice and a relief to talk to after a long day. The man gave us a nice king sized room and it was clean. There was minimal parking. The outside of the building was pretty dirty. You close your door and the whole outside of the building feels like it wants to come off. We did not do the breakfast. So I don’t know now if it had changed. But I wish I had more to say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r487829442-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>487829442</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>My dog didn't even like it</t>
+  </si>
+  <si>
+    <t>Listed as "Newly Opened" - actually just a new owner. The photo looks great, but in real life, the property is old and looks it. Wooden railings are rotted and painted over, and exterior breezeways slant down and out at an alarming angle.  There were two clerks at the desk when I checked in, one of whom did not seem to speak or understand English, know how to use the reservation system, or how to treat customers. Of course, she was not wearing a name tag, unlike the other clerk.  I actually heard her tell a customer on the phone to call back in 2 days to talk to the manager because she didn't know how to process his deposit refund. The room did seem to be clean, with a microwave, fridge, flat panel TV, desk, adequate lighting, a desk chair, and an easy chair. As with most Motel 6 properties, there were no toiletries, but why they put only 3 towels in a room with max occupancy of 4 persons is beyond me. The real deal breakers were the rooms that had obviously been staked out as permanent residences, the quality of the clientele, the broken ice maker, the "pet friendly" property with absolutely no green space or sanitary amenities, and the group of homeless people parked across the street.  When I asked where I could take my dog to go potty, I was directed to a park 2...Listed as "Newly Opened" - actually just a new owner. The photo looks great, but in real life, the property is old and looks it. Wooden railings are rotted and painted over, and exterior breezeways slant down and out at an alarming angle.  There were two clerks at the desk when I checked in, one of whom did not seem to speak or understand English, know how to use the reservation system, or how to treat customers. Of course, she was not wearing a name tag, unlike the other clerk.  I actually heard her tell a customer on the phone to call back in 2 days to talk to the manager because she didn't know how to process his deposit refund. The room did seem to be clean, with a microwave, fridge, flat panel TV, desk, adequate lighting, a desk chair, and an easy chair. As with most Motel 6 properties, there were no toiletries, but why they put only 3 towels in a room with max occupancy of 4 persons is beyond me. The real deal breakers were the rooms that had obviously been staked out as permanent residences, the quality of the clientele, the broken ice maker, the "pet friendly" property with absolutely no green space or sanitary amenities, and the group of homeless people parked across the street.  When I asked where I could take my dog to go potty, I was directed to a park 2 blocks away, which was littered and also occupied by homeless people. When we checked out 2 days early the next morning, the same non-English speaking clerk was behind the desk and tried to make me wait until another clerk came in a hour later because she didn't know how to do refunds.  I told her to get her boss on the phone and have him walk her through it, and that she obviously needed more training because she wasn't qualified to be at the desk by herself.  She finally managed to process the refund, and we got the heck out of there.  I would actively discourage anyone from staying there, and I would absolutely never, ever go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Listed as "Newly Opened" - actually just a new owner. The photo looks great, but in real life, the property is old and looks it. Wooden railings are rotted and painted over, and exterior breezeways slant down and out at an alarming angle.  There were two clerks at the desk when I checked in, one of whom did not seem to speak or understand English, know how to use the reservation system, or how to treat customers. Of course, she was not wearing a name tag, unlike the other clerk.  I actually heard her tell a customer on the phone to call back in 2 days to talk to the manager because she didn't know how to process his deposit refund. The room did seem to be clean, with a microwave, fridge, flat panel TV, desk, adequate lighting, a desk chair, and an easy chair. As with most Motel 6 properties, there were no toiletries, but why they put only 3 towels in a room with max occupancy of 4 persons is beyond me. The real deal breakers were the rooms that had obviously been staked out as permanent residences, the quality of the clientele, the broken ice maker, the "pet friendly" property with absolutely no green space or sanitary amenities, and the group of homeless people parked across the street.  When I asked where I could take my dog to go potty, I was directed to a park 2...Listed as "Newly Opened" - actually just a new owner. The photo looks great, but in real life, the property is old and looks it. Wooden railings are rotted and painted over, and exterior breezeways slant down and out at an alarming angle.  There were two clerks at the desk when I checked in, one of whom did not seem to speak or understand English, know how to use the reservation system, or how to treat customers. Of course, she was not wearing a name tag, unlike the other clerk.  I actually heard her tell a customer on the phone to call back in 2 days to talk to the manager because she didn't know how to process his deposit refund. The room did seem to be clean, with a microwave, fridge, flat panel TV, desk, adequate lighting, a desk chair, and an easy chair. As with most Motel 6 properties, there were no toiletries, but why they put only 3 towels in a room with max occupancy of 4 persons is beyond me. The real deal breakers were the rooms that had obviously been staked out as permanent residences, the quality of the clientele, the broken ice maker, the "pet friendly" property with absolutely no green space or sanitary amenities, and the group of homeless people parked across the street.  When I asked where I could take my dog to go potty, I was directed to a park 2 blocks away, which was littered and also occupied by homeless people. When we checked out 2 days early the next morning, the same non-English speaking clerk was behind the desk and tried to make me wait until another clerk came in a hour later because she didn't know how to do refunds.  I told her to get her boss on the phone and have him walk her through it, and that she obviously needed more training because she wasn't qualified to be at the desk by herself.  She finally managed to process the refund, and we got the heck out of there.  I would actively discourage anyone from staying there, and I would absolutely never, ever go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r478591179-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>478591179</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>See Quality Inn review. The worst place ever!!</t>
+  </si>
+  <si>
+    <t>As stated on Quality Inn review (this hotel changed from Quality Inn to Studio 6 in March) Avoid this hotel at all costs!! Dirty hotel, dirty towels and sheets and no soap!The staff and management are rude and unhelpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Studio 6 Anaheim, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>As stated on Quality Inn review (this hotel changed from Quality Inn to Studio 6 in March) Avoid this hotel at all costs!! Dirty hotel, dirty towels and sheets and no soap!The staff and management are rude and unhelpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r472393362-Studio_6_Anaheim-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>472393362</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>room for improvement</t>
+  </si>
+  <si>
+    <t>This is a Studio 6 Motel (part of the Motel 6 chain).  It was formerly a Quality Inn and it has undergone recent renovation.  It is on N Harbor Blvd and adjacent to a major freeway, so we were concerned about noise.  Upon our request for a quiet room, we were given a room on the third floor, towards the back, facing a pre-school next door.  Room was quiet.  Room came with a microwave, refrigerator, flatscreen TV, free WIFI, granite countertop, lamps with plug ins and usb ports that could be used to recharge phones, landline phone, alarm clock, desk chair, and other cushioned chair.  Beds only came with a single top sheet.  No blanket or bedspread on either bed.  Mattress and bedding seemed fine, but lack of covers was uncomfortable. 
+ Inside of dresser was dirty.  A/C smelled of urine after running for several hours, carpet was worn near bathroom entrance.  Desk clerk confirmed there would be coffee available in the office in the morning, but not available and office closed/locked at 7am.  No coffee by the time we left at 7:30am, just a note on the counter saying they would return in 30 minutes.  Washcloth came with long hair embedded in fabric.  Studio 6 has a 48hr cancellation requirement, much less flexible than standard Motel 6 motels. We have never stayed at a Studio 6 facility before, but have stayed at Motel 6 many many times over the past...This is a Studio 6 Motel (part of the Motel 6 chain).  It was formerly a Quality Inn and it has undergone recent renovation.  It is on N Harbor Blvd and adjacent to a major freeway, so we were concerned about noise.  Upon our request for a quiet room, we were given a room on the third floor, towards the back, facing a pre-school next door.  Room was quiet.  Room came with a microwave, refrigerator, flatscreen TV, free WIFI, granite countertop, lamps with plug ins and usb ports that could be used to recharge phones, landline phone, alarm clock, desk chair, and other cushioned chair.  Beds only came with a single top sheet.  No blanket or bedspread on either bed.  Mattress and bedding seemed fine, but lack of covers was uncomfortable.  Inside of dresser was dirty.  A/C smelled of urine after running for several hours, carpet was worn near bathroom entrance.  Desk clerk confirmed there would be coffee available in the office in the morning, but not available and office closed/locked at 7am.  No coffee by the time we left at 7:30am, just a note on the counter saying they would return in 30 minutes.  Washcloth came with long hair embedded in fabric.  Studio 6 has a 48hr cancellation requirement, much less flexible than standard Motel 6 motels. We have never stayed at a Studio 6 facility before, but have stayed at Motel 6 many many times over the past 30+ years and quality overall at Motel 6 has been improving, but this facility needs help.  Would recommend staying elsewhere.  Stayed here for trip to Disneyland.  Easy 10-12 minute drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>This is a Studio 6 Motel (part of the Motel 6 chain).  It was formerly a Quality Inn and it has undergone recent renovation.  It is on N Harbor Blvd and adjacent to a major freeway, so we were concerned about noise.  Upon our request for a quiet room, we were given a room on the third floor, towards the back, facing a pre-school next door.  Room was quiet.  Room came with a microwave, refrigerator, flatscreen TV, free WIFI, granite countertop, lamps with plug ins and usb ports that could be used to recharge phones, landline phone, alarm clock, desk chair, and other cushioned chair.  Beds only came with a single top sheet.  No blanket or bedspread on either bed.  Mattress and bedding seemed fine, but lack of covers was uncomfortable. 
+ Inside of dresser was dirty.  A/C smelled of urine after running for several hours, carpet was worn near bathroom entrance.  Desk clerk confirmed there would be coffee available in the office in the morning, but not available and office closed/locked at 7am.  No coffee by the time we left at 7:30am, just a note on the counter saying they would return in 30 minutes.  Washcloth came with long hair embedded in fabric.  Studio 6 has a 48hr cancellation requirement, much less flexible than standard Motel 6 motels. We have never stayed at a Studio 6 facility before, but have stayed at Motel 6 many many times over the past...This is a Studio 6 Motel (part of the Motel 6 chain).  It was formerly a Quality Inn and it has undergone recent renovation.  It is on N Harbor Blvd and adjacent to a major freeway, so we were concerned about noise.  Upon our request for a quiet room, we were given a room on the third floor, towards the back, facing a pre-school next door.  Room was quiet.  Room came with a microwave, refrigerator, flatscreen TV, free WIFI, granite countertop, lamps with plug ins and usb ports that could be used to recharge phones, landline phone, alarm clock, desk chair, and other cushioned chair.  Beds only came with a single top sheet.  No blanket or bedspread on either bed.  Mattress and bedding seemed fine, but lack of covers was uncomfortable.  Inside of dresser was dirty.  A/C smelled of urine after running for several hours, carpet was worn near bathroom entrance.  Desk clerk confirmed there would be coffee available in the office in the morning, but not available and office closed/locked at 7am.  No coffee by the time we left at 7:30am, just a note on the counter saying they would return in 30 minutes.  Washcloth came with long hair embedded in fabric.  Studio 6 has a 48hr cancellation requirement, much less flexible than standard Motel 6 motels. We have never stayed at a Studio 6 facility before, but have stayed at Motel 6 many many times over the past 30+ years and quality overall at Motel 6 has been improving, but this facility needs help.  Would recommend staying elsewhere.  Stayed here for trip to Disneyland.  Easy 10-12 minute drive.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +899,587 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_723.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_723.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>toni e</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The absolute worst hotel experience I have ever had. My family and I stayed here for 4 nights after Christmas Dec 2017. Every single night we came back our keys didn't work, had to go to the office every night for them to reprogram our keys. Also every single night (once we got inside) we discovered our smoke alarm to be beeping; that slow beep that means change the batteries etc. The first night it was beeping at 11:30 pm while I'm trying to get my kids to stay asleep! I called the front office and they said it would take 30 minutes for someone to come fix it! 30 minutes of constant beeping in the middle of the night?! You've got to be kidding me. Each night after I called about the beeping smoke detector they would just tell me to remove the detector since they "can't" fix it. When I told them I believe it's illegal to remove smoke detectors the answer I got was basically "well, we can't fix it so..." The whole place was in disrepair: broken drawers, toilet lid that doesn't fit the tank, light above the bed broken, cockroaches. Absolutely horrible. Our toiletries, coffee, etc was NEVER refilled or replaced even after we expressley asked the office to refill and the lady at the desk wrote down that our things needed refilling. Things STILL NEVER got refilled. We spoke to the front desk repeatedly...The absolute worst hotel experience I have ever had. My family and I stayed here for 4 nights after Christmas Dec 2017. Every single night we came back our keys didn't work, had to go to the office every night for them to reprogram our keys. Also every single night (once we got inside) we discovered our smoke alarm to be beeping; that slow beep that means change the batteries etc. The first night it was beeping at 11:30 pm while I'm trying to get my kids to stay asleep! I called the front office and they said it would take 30 minutes for someone to come fix it! 30 minutes of constant beeping in the middle of the night?! You've got to be kidding me. Each night after I called about the beeping smoke detector they would just tell me to remove the detector since they "can't" fix it. When I told them I believe it's illegal to remove smoke detectors the answer I got was basically "well, we can't fix it so..." The whole place was in disrepair: broken drawers, toilet lid that doesn't fit the tank, light above the bed broken, cockroaches. Absolutely horrible. Our toiletries, coffee, etc was NEVER refilled or replaced even after we expressley asked the office to refill and the lady at the desk wrote down that our things needed refilling. Things STILL NEVER got refilled. We spoke to the front desk repeatedly about the issues but it didn't matter, we clearly weren't GUESTS here. Frankly, with all the horrible reviews I see now that our stay is over I have no idea how this place is still in business.More</t>
   </si>
   <si>
+    <t>Galen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r539806521-Studio_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>We were not in the motel for a very long time, so our review is limited in scope to what we observed and did there.  I do not have anything bad to say about the room or the facilities.  Overall it met our requirements.More</t>
   </si>
   <si>
+    <t>Ken M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r537508860-Studio_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Checked in on 10/20 and spent 10 min trying to get the keys to work. Had to be re-programmed. Went back to room and got in fine. I went out for a few hours and came back and could not get into room again! Had the lady at the front desk try and she couldn't get it to open either. Had to call maintenance guy at his house and waited in the lobby for 45 min. He got there and got it open right away, but all told, I spent and hour locked out of my room. When I told the manager about this at checkout, she offered no apology and offered a whopping $5 off for my trouble. She pushed a few buttons and said it would be refunded on my card. 11 days later, still no credit. She obviously just lied to get me outta there. While I was in complaining, there was another lady doing the same thing about her room!! There's a reason they come up as the cheapest when doing a room search. Spend a little extra folks and you won't have to worry about incidents/people like this as well as not the greatest part of town. You get what you pay for!!!  Hope this helpsMore</t>
   </si>
   <si>
+    <t>Aster G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r533260676-Studio_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Room was spacious and clean, however this was a solo trip with my 7 year old daughter. While staying at Studio 6 a lot of suspicious activity was happening, in and around the hotel. Men (and a woman) were walking around the hotel communicating and talking about drugs and meeting people at the nearby park. How I know this? Well they were talking about their business right outside my door. I did not feel safe at all. Our door looked like it had been kicked down more than once. Will not stay here again. More</t>
   </si>
   <si>
+    <t>aurelio m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r521176978-Studio_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>The room was not clean enough for my wife and I we like the area. Hotel needs to spend more time on cleaning and getting the rooms ready  The front desk was very understanding and had no problem with the  refundMore</t>
   </si>
   <si>
+    <t>Amanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r517194842-Studio_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>We stayed at this place before and honestly it was one of the worst places we had stayed. It is still a bad neighborhood and people who live in this motel are not afraid to let trash and alcohol and themselves run wild in the motel. There is not respect by the inhabitants. We went was running late to check in. The man this round who check us in was very nice and a relief to talk to after a long day. The man gave us a nice king sized room and it was clean. There was minimal parking. The outside of the building was pretty dirty. You close your door and the whole outside of the building feels like it wants to come off. We did not do the breakfast. So I don’t know now if it had changed. But I wish I had more to say.More</t>
   </si>
   <si>
+    <t>fancypawz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r487829442-Studio_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>Listed as "Newly Opened" - actually just a new owner. The photo looks great, but in real life, the property is old and looks it. Wooden railings are rotted and painted over, and exterior breezeways slant down and out at an alarming angle.  There were two clerks at the desk when I checked in, one of whom did not seem to speak or understand English, know how to use the reservation system, or how to treat customers. Of course, she was not wearing a name tag, unlike the other clerk.  I actually heard her tell a customer on the phone to call back in 2 days to talk to the manager because she didn't know how to process his deposit refund. The room did seem to be clean, with a microwave, fridge, flat panel TV, desk, adequate lighting, a desk chair, and an easy chair. As with most Motel 6 properties, there were no toiletries, but why they put only 3 towels in a room with max occupancy of 4 persons is beyond me. The real deal breakers were the rooms that had obviously been staked out as permanent residences, the quality of the clientele, the broken ice maker, the "pet friendly" property with absolutely no green space or sanitary amenities, and the group of homeless people parked across the street.  When I asked where I could take my dog to go potty, I was directed to a park 2...Listed as "Newly Opened" - actually just a new owner. The photo looks great, but in real life, the property is old and looks it. Wooden railings are rotted and painted over, and exterior breezeways slant down and out at an alarming angle.  There were two clerks at the desk when I checked in, one of whom did not seem to speak or understand English, know how to use the reservation system, or how to treat customers. Of course, she was not wearing a name tag, unlike the other clerk.  I actually heard her tell a customer on the phone to call back in 2 days to talk to the manager because she didn't know how to process his deposit refund. The room did seem to be clean, with a microwave, fridge, flat panel TV, desk, adequate lighting, a desk chair, and an easy chair. As with most Motel 6 properties, there were no toiletries, but why they put only 3 towels in a room with max occupancy of 4 persons is beyond me. The real deal breakers were the rooms that had obviously been staked out as permanent residences, the quality of the clientele, the broken ice maker, the "pet friendly" property with absolutely no green space or sanitary amenities, and the group of homeless people parked across the street.  When I asked where I could take my dog to go potty, I was directed to a park 2 blocks away, which was littered and also occupied by homeless people. When we checked out 2 days early the next morning, the same non-English speaking clerk was behind the desk and tried to make me wait until another clerk came in a hour later because she didn't know how to do refunds.  I told her to get her boss on the phone and have him walk her through it, and that she obviously needed more training because she wasn't qualified to be at the desk by herself.  She finally managed to process the refund, and we got the heck out of there.  I would actively discourage anyone from staying there, and I would absolutely never, ever go back.More</t>
   </si>
   <si>
+    <t>huddo2404</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r478591179-Studio_6_Anaheim-Anaheim_California.html</t>
   </si>
   <si>
@@ -376,6 +400,9 @@
   </si>
   <si>
     <t>As stated on Quality Inn review (this hotel changed from Quality Inn to Studio 6 in March) Avoid this hotel at all costs!! Dirty hotel, dirty towels and sheets and no soap!The staff and management are rude and unhelpful.More</t>
+  </si>
+  <si>
+    <t>familyoffour1111</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d12290103-r472393362-Studio_6_Anaheim-Anaheim_California.html</t>
@@ -903,43 +930,47 @@
       <c r="A2" t="n">
         <v>3927</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -951,56 +982,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3927</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1016,56 +1051,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3927</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1083,56 +1122,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3927</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1144,56 +1187,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3927</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1205,56 +1252,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3927</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1270,56 +1321,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3927</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1337,56 +1392,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3927</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1404,56 +1463,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3927</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1471,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
